--- a/doc/hybridMethod/hybridMethod.xlsx
+++ b/doc/hybridMethod/hybridMethod.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\hybridMethod\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{691479F7-2462-4D7D-888B-8164EB23DCE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B519F811-064B-40E7-BE5B-135696776261}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,14 +20,27 @@
     <definedName name="_xlchart.v1.1" hidden="1">Φύλλο1!$K$6:$K$44</definedName>
     <definedName name="_xlchart.v1.10" hidden="1">Φύλλο1!$N$5</definedName>
     <definedName name="_xlchart.v1.11" hidden="1">Φύλλο1!$N$6:$N$44</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">Φύλλο1!$L$5</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">Φύλλο1!$L$6:$L$44</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">Φύλλο1!$M$5</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">Φύλλο1!$M$6:$M$44</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">Φύλλο1!$N$5</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">Φύλλο1!$N$6:$N$44</definedName>
-    <definedName name="_xlchart.v1.8" hidden="1">Φύλλο1!$K$5</definedName>
-    <definedName name="_xlchart.v1.9" hidden="1">Φύλλο1!$K$6:$K$44</definedName>
+    <definedName name="_xlchart.v1.12" hidden="1">Φύλλο1!$K$5</definedName>
+    <definedName name="_xlchart.v1.13" hidden="1">Φύλλο1!$K$6:$K$44</definedName>
+    <definedName name="_xlchart.v1.14" hidden="1">Φύλλο1!$M$6:$M$44</definedName>
+    <definedName name="_xlchart.v1.15" hidden="1">Φύλλο1!$N$5</definedName>
+    <definedName name="_xlchart.v1.16" hidden="1">Φύλλο1!$N$6:$N$44</definedName>
+    <definedName name="_xlchart.v1.17" hidden="1">Φύλλο1!$K$5</definedName>
+    <definedName name="_xlchart.v1.18" hidden="1">Φύλλο1!$K$6:$K$44</definedName>
+    <definedName name="_xlchart.v1.19" hidden="1">Φύλλο1!$N$5</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">Φύλλο1!$N$5</definedName>
+    <definedName name="_xlchart.v1.20" hidden="1">Φύλλο1!$N$6:$N$44</definedName>
+    <definedName name="_xlchart.v1.21" hidden="1">Φύλλο1!$K$5</definedName>
+    <definedName name="_xlchart.v1.22" hidden="1">Φύλλο1!$K$6:$K$44</definedName>
+    <definedName name="_xlchart.v1.23" hidden="1">Φύλλο1!$N$5</definedName>
+    <definedName name="_xlchart.v1.24" hidden="1">Φύλλο1!$N$6:$N$44</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">Φύλλο1!$N$6:$N$44</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">Φύλλο1!$K$5</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">Φύλλο1!$K$6:$K$44</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">Φύλλο1!$L$5</definedName>
+    <definedName name="_xlchart.v1.7" hidden="1">Φύλλο1!$L$6:$L$44</definedName>
+    <definedName name="_xlchart.v1.8" hidden="1">Φύλλο1!$M$5</definedName>
+    <definedName name="_xlchart.v1.9" hidden="1">Φύλλο1!$M$6:$M$44</definedName>
   </definedNames>
   <calcPr calcId="191029" iterateDelta="1E-4"/>
   <extLst>
@@ -506,22 +519,22 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.1</cx:f>
+        <cx:f>_xlchart.v1.5</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="1">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.3</cx:f>
+        <cx:f>_xlchart.v1.7</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="2">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.5</cx:f>
+        <cx:f>_xlchart.v1.9</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="3">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.7</cx:f>
+        <cx:f>_xlchart.v1.11</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -576,7 +589,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{1426FED0-088E-4877-81FC-C148EA3D0CC0}" formatIdx="0">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.0</cx:f>
+              <cx:f>_xlchart.v1.4</cx:f>
               <cx:v>DE</cx:v>
             </cx:txData>
           </cx:tx>
@@ -589,7 +602,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{21314A5D-C112-454B-9A8A-D1CEBB960B53}" formatIdx="1">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.2</cx:f>
+              <cx:f>_xlchart.v1.6</cx:f>
               <cx:v>IPSO</cx:v>
             </cx:txData>
           </cx:tx>
@@ -602,7 +615,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{39DDCE55-80FF-4E75-AF9A-8371FDA1D56E}" formatIdx="2">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.4</cx:f>
+              <cx:f>_xlchart.v1.8</cx:f>
               <cx:v>GENETIC</cx:v>
             </cx:txData>
           </cx:tx>
@@ -615,7 +628,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{F1FAB4B4-56FC-4FE0-ABE2-25F25947B042}" formatIdx="3">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.6</cx:f>
+              <cx:f>_xlchart.v1.10</cx:f>
               <cx:v>PROPOSED</cx:v>
             </cx:txData>
           </cx:tx>
@@ -686,12 +699,12 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.9</cx:f>
+        <cx:f>_xlchart.v1.18</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="1">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.11</cx:f>
+        <cx:f>_xlchart.v1.20</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -762,7 +775,7 @@
                 <a:ea typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
                 <a:cs typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
               </a:rPr>
-              <a:t>of proposed with rejection method and Differential Evolution</a:t>
+              <a:t>of proposed method and Differential Evolution</a:t>
             </a:r>
             <a:endParaRPr lang="en-US">
               <a:effectLst/>
@@ -773,10 +786,10 @@
     </cx:title>
     <cx:plotArea>
       <cx:plotAreaRegion>
-        <cx:series layoutId="boxWhisker" uniqueId="{FBE44246-5132-48D5-9230-53062E58F459}">
+        <cx:series layoutId="boxWhisker" uniqueId="{5E7DF475-B690-4E82-A298-D420E3895926}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.8</cx:f>
+              <cx:f>_xlchart.v1.17</cx:f>
               <cx:v>DE</cx:v>
             </cx:txData>
           </cx:tx>
@@ -786,10 +799,10 @@
             <cx:statistics quartileMethod="inclusive"/>
           </cx:layoutPr>
         </cx:series>
-        <cx:series layoutId="boxWhisker" uniqueId="{3FC4C6D1-74F1-4751-A19B-6FC100BCF785}">
+        <cx:series layoutId="boxWhisker" uniqueId="{A3F5B543-6423-453E-88C5-F2F398FD2A77}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.10</cx:f>
+              <cx:f>_xlchart.v1.19</cx:f>
               <cx:v>PROPOSED</cx:v>
             </cx:txData>
           </cx:tx>
@@ -811,9 +824,42 @@
       </cx:axis>
       <cx:axis id="1">
         <cx:valScaling/>
+        <cx:title>
+          <cx:tx>
+            <cx:rich>
+              <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr algn="ctr" rtl="0">
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:sysClr>
+                    </a:solidFill>
+                    <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+                  </a:rPr>
+                  <a:t>Function calls</a:t>
+                </a:r>
+                <a:endParaRPr lang="el-GR" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:sysClr>
+                  </a:solidFill>
+                  <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+                </a:endParaRPr>
+              </a:p>
+            </cx:rich>
+          </cx:tx>
+        </cx:title>
         <cx:majorGridlines/>
         <cx:tickLabels/>
-        <cx:numFmt formatCode="#,##0" sourceLinked="0"/>
       </cx:axis>
     </cx:plotArea>
     <cx:legend pos="b" align="ctr" overlay="0"/>
@@ -2013,25 +2059,25 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>193675</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>107950</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>574675</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>44450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
-      <xdr:colOff>498475</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>88900</xdr:rowOff>
+      <xdr:colOff>269875</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
-            <xdr:cNvPr id="2" name="Γράφημα 1">
+            <xdr:cNvPr id="4" name="Γράφημα 3">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8E8E83D3-0A8B-2BD8-ECAC-AADBCDB5CE8A}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{670629AA-AF90-FC9F-F163-E8E9E21D6B4B}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2058,7 +2104,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="9979025" y="3422650"/>
+              <a:off x="9750425" y="4095750"/>
               <a:ext cx="4572000" cy="2743200"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -2392,7 +2438,7 @@
   <dimension ref="A3:N45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q48" sqref="Q48"/>
+      <selection activeCell="W39" sqref="W38:W39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
